--- a/de_para_pmad_2017_2018.xlsx
+++ b/de_para_pmad_2017_2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="domicilios" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="809">
   <si>
     <t xml:space="preserve">Coluna PMAD 2017</t>
   </si>
@@ -2457,11 +2457,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2476,11 +2477,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Monospace"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -2541,11 +2537,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2557,20 +2553,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2650,10 +2646,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F582"/>
+  <dimension ref="A1:G582"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G56" activeCellId="0" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3129,46 +3125,46 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3357,6 +3353,10 @@
       <c r="F56" s="0" t="s">
         <v>67</v>
       </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A56," as ",B56,",")</f>
+        <v>  m1.TP_DOM_OCUPACAO as B03,</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -3592,7 +3592,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="0" t="n">
         <v>99999</v>
       </c>
@@ -3638,7 +3638,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="0" t="n">
         <v>99999</v>
       </c>
@@ -3765,35 +3765,35 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="7" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="7" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5058,7 +5058,7 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="6" t="s">
         <v>215</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -5067,7 +5067,7 @@
       <c r="C166" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E166" s="0" t="n">
@@ -5078,12 +5078,12 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="7" t="n">
+      <c r="D167" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E167" s="0" t="n">
@@ -5094,12 +5094,12 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="7" t="n">
+      <c r="D168" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E168" s="0" t="n">
@@ -5110,12 +5110,12 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="7" t="n">
+      <c r="D169" s="9" t="n">
         <v>0</v>
       </c>
       <c r="E169" s="0" t="n">
@@ -5126,12 +5126,12 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="9" t="s">
         <v>227</v>
       </c>
       <c r="E170" s="0" t="n">
@@ -5142,12 +5142,12 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="7"/>
+      <c r="D171" s="9"/>
       <c r="E171" s="0" t="n">
         <v>5</v>
       </c>
@@ -5156,12 +5156,12 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="7"/>
+      <c r="D172" s="9"/>
       <c r="E172" s="0" t="n">
         <v>8</v>
       </c>
@@ -5336,217 +5336,217 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="7" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="7" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="7" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="7" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="7" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="7" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="7" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="7" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="7" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="7" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="7" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="7" t="s">
         <v>282</v>
       </c>
       <c r="D195" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E195" s="6"/>
+      <c r="E195" s="8"/>
       <c r="F195" s="0" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E196" s="6"/>
+      <c r="E196" s="8"/>
       <c r="F196" s="0" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="7" t="s">
         <v>288</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E197" s="6"/>
+      <c r="E197" s="8"/>
       <c r="F197" s="0" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="7" t="s">
         <v>291</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E198" s="6"/>
+      <c r="E198" s="8"/>
       <c r="F198" s="0" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="7" t="s">
         <v>294</v>
       </c>
       <c r="D199" s="0" t="n">
@@ -5560,13 +5560,13 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="7" t="s">
         <v>298</v>
       </c>
       <c r="D200" s="0" t="n">
@@ -5580,13 +5580,13 @@
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="7" t="s">
         <v>301</v>
       </c>
       <c r="D201" s="0" t="n">
@@ -5600,13 +5600,13 @@
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="7" t="s">
         <v>304</v>
       </c>
       <c r="D202" s="0" t="n">
@@ -5620,13 +5620,13 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="7" t="s">
         <v>307</v>
       </c>
       <c r="D203" s="0" t="n">
@@ -5640,13 +5640,13 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="7" t="s">
         <v>310</v>
       </c>
       <c r="D204" s="0" t="n">
@@ -5660,13 +5660,13 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="7" t="s">
         <v>313</v>
       </c>
       <c r="D205" s="0" t="n">
@@ -5680,13 +5680,13 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="7" t="s">
         <v>316</v>
       </c>
       <c r="D206" s="0" t="n">
@@ -5700,13 +5700,13 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="7" t="s">
         <v>319</v>
       </c>
       <c r="D207" s="0" t="n">
@@ -5720,13 +5720,13 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="7" t="s">
         <v>322</v>
       </c>
       <c r="D208" s="0" t="n">
@@ -5740,13 +5740,13 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="7" t="s">
         <v>325</v>
       </c>
       <c r="D209" s="0" t="n">
@@ -5760,13 +5760,13 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="7" t="s">
         <v>328</v>
       </c>
       <c r="D210" s="0" t="n">
@@ -5780,13 +5780,13 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="7" t="s">
         <v>331</v>
       </c>
       <c r="D211" s="0" t="n">
@@ -5800,13 +5800,13 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="7" t="s">
         <v>334</v>
       </c>
       <c r="D212" s="0" t="n">
@@ -5820,13 +5820,13 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="7" t="s">
         <v>337</v>
       </c>
       <c r="D213" s="0" t="n">
@@ -5840,13 +5840,13 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="7" t="s">
         <v>340</v>
       </c>
       <c r="D214" s="0" t="n">
@@ -5860,13 +5860,13 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="7" t="s">
         <v>343</v>
       </c>
       <c r="D215" s="0" t="n">
@@ -5880,13 +5880,13 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="7" t="s">
         <v>346</v>
       </c>
       <c r="D216" s="0" t="n">
@@ -5900,13 +5900,13 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="7" t="s">
         <v>349</v>
       </c>
       <c r="D217" s="0" t="n">
@@ -5920,13 +5920,13 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="7" t="s">
         <v>352</v>
       </c>
       <c r="D218" s="0" t="n">
@@ -5940,13 +5940,13 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="7" t="s">
         <v>355</v>
       </c>
       <c r="D219" s="0" t="n">
@@ -5960,13 +5960,13 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="7" t="s">
         <v>358</v>
       </c>
       <c r="D220" s="0" t="n">
@@ -5980,13 +5980,13 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="7" t="s">
         <v>361</v>
       </c>
       <c r="D221" s="0" t="n">
@@ -5998,13 +5998,13 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="7" t="s">
         <v>364</v>
       </c>
       <c r="D222" s="0" t="n">
@@ -6016,13 +6016,13 @@
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="7" t="s">
         <v>367</v>
       </c>
       <c r="D223" s="0" t="n">
@@ -6491,7 +6491,7 @@
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="3"/>
-      <c r="D256" s="6"/>
+      <c r="D256" s="8"/>
       <c r="E256" s="0" t="n">
         <v>32</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="3"/>
-      <c r="D306" s="6"/>
+      <c r="D306" s="8"/>
       <c r="E306" s="0" t="n">
         <v>32</v>
       </c>
@@ -7899,7 +7899,7 @@
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="6"/>
+      <c r="D356" s="8"/>
       <c r="E356" s="0" t="n">
         <v>32</v>
       </c>
@@ -8603,7 +8603,7 @@
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="3"/>
-      <c r="D406" s="6"/>
+      <c r="D406" s="8"/>
       <c r="E406" s="0" t="n">
         <v>32</v>
       </c>
@@ -9307,7 +9307,7 @@
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="3"/>
-      <c r="D456" s="6"/>
+      <c r="D456" s="8"/>
       <c r="E456" s="0" t="n">
         <v>32</v>
       </c>
@@ -10011,7 +10011,7 @@
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="3"/>
-      <c r="D506" s="6"/>
+      <c r="D506" s="8"/>
       <c r="E506" s="0" t="n">
         <v>32</v>
       </c>
@@ -10663,7 +10663,7 @@
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="3"/>
-      <c r="D551" s="6"/>
+      <c r="D551" s="8"/>
       <c r="E551" s="0" t="n">
         <v>99</v>
       </c>
@@ -10807,7 +10807,7 @@
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="3"/>
-      <c r="D561" s="6"/>
+      <c r="D561" s="8"/>
       <c r="E561" s="0" t="n">
         <v>99</v>
       </c>
@@ -10951,7 +10951,7 @@
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="3"/>
-      <c r="D571" s="6"/>
+      <c r="D571" s="8"/>
       <c r="E571" s="0" t="n">
         <v>99</v>
       </c>
@@ -11109,7 +11109,7 @@
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="3"/>
-      <c r="D582" s="6"/>
+      <c r="D582" s="8"/>
       <c r="E582" s="0" t="n">
         <v>99</v>
       </c>
@@ -11301,9 +11301,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F663"/>
+  <dimension ref="A1:G664"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -11779,24 +11779,24 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -11818,6 +11818,10 @@
       </c>
       <c r="F43" s="0" t="s">
         <v>478</v>
+      </c>
+      <c r="G43" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A43," as ",B43,",")</f>
+        <v>  m1.TP_MOR_COND_UNID as D02,</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11965,6 +11969,10 @@
       <c r="F53" s="0" t="s">
         <v>126</v>
       </c>
+      <c r="G53" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A53," as ",B53,",")</f>
+        <v>  m1.TP_MOR_RESPON_COMPARTILHADA as D06,</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2"/>
@@ -12013,6 +12021,10 @@
       <c r="F56" s="0" t="s">
         <v>493</v>
       </c>
+      <c r="G56" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A56," as ",B56,",")</f>
+        <v>  m1.TP_MOR_SEXO as D03,</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2"/>
@@ -12047,6 +12059,10 @@
       <c r="F58" s="0" t="s">
         <v>498</v>
       </c>
+      <c r="G58" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A58," as ",B58,",")</f>
+        <v>  m1.TP_MOR_COR_RACA as D04,</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
@@ -12137,6 +12153,10 @@
       <c r="F64" s="0" t="s">
         <v>506</v>
       </c>
+      <c r="G64" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A64," as ",B64,",")</f>
+        <v>  m1.QT_MOR_IDADE as D05,</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
@@ -12164,6 +12184,10 @@
       </c>
       <c r="F66" s="0" t="s">
         <v>510</v>
+      </c>
+      <c r="G66" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A66," as ",B66,",")</f>
+        <v>  m1.TP_MOR_ESTADO_CIVIL as D07,</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12309,6 +12333,10 @@
       <c r="F76" s="0" t="s">
         <v>521</v>
       </c>
+      <c r="G76" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A76," as ",B76,",")</f>
+        <v>  m1.TP_MOR_RELIGIAO as D08,</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2"/>
@@ -12440,6 +12468,10 @@
       </c>
       <c r="F85" s="0" t="s">
         <v>533</v>
+      </c>
+      <c r="G85" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A85," as ",B85,",")</f>
+        <v>  m1.TP_MOR_FREQ_RELIGIAO as D09,</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12515,6 +12547,10 @@
       <c r="F90" s="0" t="s">
         <v>539</v>
       </c>
+      <c r="G90" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A90," as ",B90,",")</f>
+        <v>  m1.TP_MOR_NATURALIDADE as D10,</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2"/>
@@ -12927,6 +12963,10 @@
       <c r="F119" s="0" t="s">
         <v>276</v>
       </c>
+      <c r="G119" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A119," as ",B119,",")</f>
+        <v>  m1.TP_MOR_NASCIDO_DF as D11,</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2"/>
@@ -13017,6 +13057,10 @@
       <c r="F125" s="0" t="s">
         <v>85</v>
       </c>
+      <c r="G125" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A125," as ",B125,",")</f>
+        <v>  m1.DT_MOR_ANO_CHEGADA as D12,</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2"/>
@@ -13051,6 +13095,10 @@
       <c r="F127" s="0" t="s">
         <v>539</v>
       </c>
+      <c r="G127" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A127," as ",B127,",")</f>
+        <v>  m1.TP_MOR_ORIGEM as D13,</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2"/>
@@ -13477,6 +13525,10 @@
       <c r="F157" s="0" t="s">
         <v>583</v>
       </c>
+      <c r="G157" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A157," as ",B157,",")</f>
+        <v>  m1.RZ_MOR_PQ_VEIO as D14,</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2"/>
@@ -13645,7 +13697,7 @@
       <c r="D169" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E169" s="6"/>
+      <c r="E169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
@@ -13665,6 +13717,10 @@
       </c>
       <c r="F170" s="0" t="s">
         <v>598</v>
+      </c>
+      <c r="G170" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A170," as ",B170,",")</f>
+        <v>  m1.TP_MOR_ACESSO_INT as D16,</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13770,6 +13826,10 @@
       <c r="F177" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="G177" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A177," as ",B177,",")</f>
+        <v>  m1.TP_MOR_PLANO_SAUDE as D17,</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2"/>
@@ -13832,6 +13892,10 @@
       <c r="F181" s="0" t="s">
         <v>612</v>
       </c>
+      <c r="G181" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A181," as ",B181,",")</f>
+        <v>  m1.ST_MOR_HOSPITAL as D18,</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2"/>
@@ -14538,6 +14602,10 @@
       <c r="F231" s="0" t="s">
         <v>612</v>
       </c>
+      <c r="G231" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A231," as ",B231,",")</f>
+        <v>  m1.ST_MOR_POSTO_SAUDE as D19,</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2"/>
@@ -15244,6 +15312,10 @@
       <c r="F281" s="0" t="s">
         <v>621</v>
       </c>
+      <c r="G281" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A281," as ",B281,",")</f>
+        <v>  m1.TP_MOR_VIOLENCIA as D20,</v>
+      </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2"/>
@@ -15448,7 +15520,7 @@
       <c r="D296" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="E296" s="8" t="n">
+      <c r="E296" s="0" t="n">
         <v>88</v>
       </c>
       <c r="F296" s="0" t="s">
@@ -15482,8 +15554,12 @@
       <c r="D298" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F298" s="9" t="s">
+      <c r="F298" s="5" t="s">
         <v>621</v>
+      </c>
+      <c r="G298" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A298," as ",B298,",")</f>
+        <v>  m1.LC_MOR_VIOLENCIA as D21,</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15591,8 +15667,8 @@
       <c r="D306" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E306" s="8" t="n">
-        <v>8</v>
+      <c r="E306" s="0" t="n">
+        <v>88</v>
       </c>
       <c r="F306" s="0" t="s">
         <v>636</v>
@@ -15606,7 +15682,7 @@
         <v>9</v>
       </c>
       <c r="E307" s="0" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F307" s="0" t="s">
         <v>86</v>
@@ -15625,9 +15701,13 @@
       <c r="D308" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E308" s="6"/>
+      <c r="E308" s="8"/>
       <c r="F308" s="5" t="s">
         <v>621</v>
+      </c>
+      <c r="G308" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A308," as ",B308,",")</f>
+        <v>  m1.TP_MOR_REGISTROU_QUEIXA as D22,</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15679,7 +15759,7 @@
       <c r="D312" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E312" s="8" t="n">
+      <c r="E312" s="0" t="n">
         <v>4</v>
       </c>
       <c r="F312" s="0" t="s">
@@ -15707,7 +15787,7 @@
       <c r="D314" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E314" s="6"/>
+      <c r="E314" s="8"/>
       <c r="F314" s="0" t="s">
         <v>63</v>
       </c>
@@ -15759,6 +15839,10 @@
       <c r="F317" s="0" t="s">
         <v>126</v>
       </c>
+      <c r="G317" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A317," as ",B317,",")</f>
+        <v>  m1.FQ_MOR_ESCOLA as E01,</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2"/>
@@ -15816,36 +15900,37 @@
         <v>661</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
+      <c r="C322" s="3"/>
+      <c r="E322" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F322" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A323" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B323" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="C323" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="D322" s="0" t="n">
+      <c r="D323" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E322" s="6"/>
-      <c r="F322" s="0" t="s">
+      <c r="E323" s="8"/>
+      <c r="F323" s="0" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2"/>
-      <c r="B323" s="2"/>
-      <c r="C323" s="3"/>
-      <c r="D323" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E323" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F323" s="0" t="s">
-        <v>372</v>
+      <c r="G323" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A323," as ",B323,",")</f>
+        <v>  m1.LC_MOR_ESTUDA as E02,</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15853,13 +15938,13 @@
       <c r="B324" s="2"/>
       <c r="C324" s="3"/>
       <c r="D324" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E324" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F324" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15867,13 +15952,13 @@
       <c r="B325" s="2"/>
       <c r="C325" s="3"/>
       <c r="D325" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E325" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F325" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15881,13 +15966,13 @@
       <c r="B326" s="2"/>
       <c r="C326" s="3"/>
       <c r="D326" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E326" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F326" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15895,13 +15980,13 @@
       <c r="B327" s="2"/>
       <c r="C327" s="3"/>
       <c r="D327" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E327" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F327" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15909,13 +15994,13 @@
       <c r="B328" s="2"/>
       <c r="C328" s="3"/>
       <c r="D328" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E328" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15923,13 +16008,13 @@
       <c r="B329" s="2"/>
       <c r="C329" s="3"/>
       <c r="D329" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E329" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15937,13 +16022,13 @@
       <c r="B330" s="2"/>
       <c r="C330" s="3"/>
       <c r="D330" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E330" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15951,13 +16036,13 @@
       <c r="B331" s="2"/>
       <c r="C331" s="3"/>
       <c r="D331" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E331" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15965,13 +16050,13 @@
       <c r="B332" s="2"/>
       <c r="C332" s="3"/>
       <c r="D332" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E332" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F332" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15979,13 +16064,13 @@
       <c r="B333" s="2"/>
       <c r="C333" s="3"/>
       <c r="D333" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E333" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F333" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15993,13 +16078,13 @@
       <c r="B334" s="2"/>
       <c r="C334" s="3"/>
       <c r="D334" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E334" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F334" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16007,13 +16092,13 @@
       <c r="B335" s="2"/>
       <c r="C335" s="3"/>
       <c r="D335" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E335" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F335" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16021,13 +16106,13 @@
       <c r="B336" s="2"/>
       <c r="C336" s="3"/>
       <c r="D336" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E336" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F336" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16035,13 +16120,13 @@
       <c r="B337" s="2"/>
       <c r="C337" s="3"/>
       <c r="D337" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E337" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F337" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16049,13 +16134,13 @@
       <c r="B338" s="2"/>
       <c r="C338" s="3"/>
       <c r="D338" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E338" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F338" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16063,13 +16148,13 @@
       <c r="B339" s="2"/>
       <c r="C339" s="3"/>
       <c r="D339" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E339" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F339" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16077,13 +16162,13 @@
       <c r="B340" s="2"/>
       <c r="C340" s="3"/>
       <c r="D340" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E340" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F340" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16091,13 +16176,13 @@
       <c r="B341" s="2"/>
       <c r="C341" s="3"/>
       <c r="D341" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E341" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F341" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16105,13 +16190,13 @@
       <c r="B342" s="2"/>
       <c r="C342" s="3"/>
       <c r="D342" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E342" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F342" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16119,13 +16204,13 @@
       <c r="B343" s="2"/>
       <c r="C343" s="3"/>
       <c r="D343" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E343" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F343" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16133,13 +16218,13 @@
       <c r="B344" s="2"/>
       <c r="C344" s="3"/>
       <c r="D344" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E344" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F344" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16147,13 +16232,13 @@
       <c r="B345" s="2"/>
       <c r="C345" s="3"/>
       <c r="D345" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E345" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F345" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16161,13 +16246,13 @@
       <c r="B346" s="2"/>
       <c r="C346" s="3"/>
       <c r="D346" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E346" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F346" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16175,13 +16260,13 @@
       <c r="B347" s="2"/>
       <c r="C347" s="3"/>
       <c r="D347" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E347" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F347" s="0" t="s">
-        <v>613</v>
+        <v>394</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16189,13 +16274,13 @@
       <c r="B348" s="2"/>
       <c r="C348" s="3"/>
       <c r="D348" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E348" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F348" s="0" t="s">
-        <v>396</v>
+        <v>613</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16203,13 +16288,13 @@
       <c r="B349" s="2"/>
       <c r="C349" s="3"/>
       <c r="D349" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E349" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F349" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16217,13 +16302,13 @@
       <c r="B350" s="2"/>
       <c r="C350" s="3"/>
       <c r="D350" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E350" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F350" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16231,13 +16316,13 @@
       <c r="B351" s="2"/>
       <c r="C351" s="3"/>
       <c r="D351" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E351" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F351" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16245,13 +16330,13 @@
       <c r="B352" s="2"/>
       <c r="C352" s="3"/>
       <c r="D352" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E352" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F352" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16259,13 +16344,13 @@
       <c r="B353" s="2"/>
       <c r="C353" s="3"/>
       <c r="D353" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E353" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F353" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16273,13 +16358,13 @@
       <c r="B354" s="2"/>
       <c r="C354" s="3"/>
       <c r="D354" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E354" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F354" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16287,13 +16372,13 @@
       <c r="B355" s="2"/>
       <c r="C355" s="3"/>
       <c r="D355" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E355" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F355" s="0" t="s">
-        <v>9</v>
+        <v>402</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16301,13 +16386,13 @@
       <c r="B356" s="2"/>
       <c r="C356" s="3"/>
       <c r="D356" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E356" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F356" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16315,13 +16400,13 @@
       <c r="B357" s="2"/>
       <c r="C357" s="3"/>
       <c r="D357" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E357" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F357" s="0" t="s">
-        <v>403</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16329,13 +16414,13 @@
       <c r="B358" s="2"/>
       <c r="C358" s="3"/>
       <c r="D358" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E358" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F358" s="0" t="s">
-        <v>614</v>
+        <v>403</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16343,13 +16428,13 @@
       <c r="B359" s="2"/>
       <c r="C359" s="3"/>
       <c r="D359" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E359" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F359" s="0" t="s">
-        <v>416</v>
+        <v>614</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16357,13 +16442,13 @@
       <c r="B360" s="2"/>
       <c r="C360" s="3"/>
       <c r="D360" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E360" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F360" s="0" t="s">
-        <v>14</v>
+        <v>416</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16371,13 +16456,13 @@
       <c r="B361" s="2"/>
       <c r="C361" s="3"/>
       <c r="D361" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E361" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F361" s="0" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16385,13 +16470,13 @@
       <c r="B362" s="2"/>
       <c r="C362" s="3"/>
       <c r="D362" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E362" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F362" s="0" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16399,13 +16484,13 @@
       <c r="B363" s="2"/>
       <c r="C363" s="3"/>
       <c r="D363" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E363" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F363" s="0" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16413,13 +16498,13 @@
       <c r="B364" s="2"/>
       <c r="C364" s="3"/>
       <c r="D364" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E364" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F364" s="0" t="s">
-        <v>18</v>
+        <v>407</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16427,13 +16512,13 @@
       <c r="B365" s="2"/>
       <c r="C365" s="3"/>
       <c r="D365" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E365" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F365" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16441,13 +16526,13 @@
       <c r="B366" s="2"/>
       <c r="C366" s="3"/>
       <c r="D366" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E366" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F366" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16455,13 +16540,13 @@
       <c r="B367" s="2"/>
       <c r="C367" s="3"/>
       <c r="D367" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E367" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F367" s="0" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16469,13 +16554,13 @@
       <c r="B368" s="2"/>
       <c r="C368" s="3"/>
       <c r="D368" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E368" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F368" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16483,13 +16568,13 @@
       <c r="B369" s="2"/>
       <c r="C369" s="3"/>
       <c r="D369" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E369" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F369" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16497,13 +16582,13 @@
       <c r="B370" s="2"/>
       <c r="C370" s="3"/>
       <c r="D370" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E370" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F370" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16511,11 +16596,13 @@
       <c r="B371" s="2"/>
       <c r="C371" s="3"/>
       <c r="D371" s="0" t="n">
-        <v>57</v>
-      </c>
-      <c r="E371" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="E371" s="0" t="n">
+        <v>56</v>
+      </c>
       <c r="F371" s="0" t="s">
-        <v>666</v>
+        <v>411</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16523,13 +16610,11 @@
       <c r="B372" s="2"/>
       <c r="C372" s="3"/>
       <c r="D372" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="E372" s="0" t="n">
-        <v>88</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E372" s="8"/>
       <c r="F372" s="0" t="s">
-        <v>129</v>
+        <v>666</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16537,47 +16622,51 @@
       <c r="B373" s="2"/>
       <c r="C373" s="3"/>
       <c r="D373" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E373" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F373" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="2"/>
+      <c r="B374" s="2"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E373" s="0" t="n">
+      <c r="E374" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F373" s="0" t="s">
+      <c r="F374" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="2" t="s">
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B375" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C374" s="3" t="s">
+      <c r="C375" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="D374" s="0" t="n">
+      <c r="D375" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E374" s="0" t="n">
+      <c r="E375" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F374" s="0" t="s">
+      <c r="F375" s="0" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2"/>
-      <c r="B375" s="2"/>
-      <c r="C375" s="3"/>
-      <c r="D375" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E375" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F375" s="0" t="s">
-        <v>671</v>
+      <c r="G375" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A375," as ",B375,",")</f>
+        <v>  m1.TP_MOR_NIVEL_ESCOLARIDADE as E03,</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16585,13 +16674,13 @@
       <c r="B376" s="2"/>
       <c r="C376" s="3"/>
       <c r="D376" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E376" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F376" s="0" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16599,13 +16688,13 @@
       <c r="B377" s="2"/>
       <c r="C377" s="3"/>
       <c r="D377" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E377" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F377" s="0" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16613,13 +16702,13 @@
       <c r="B378" s="2"/>
       <c r="C378" s="3"/>
       <c r="D378" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E378" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F378" s="0" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16627,13 +16716,13 @@
       <c r="B379" s="2"/>
       <c r="C379" s="3"/>
       <c r="D379" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E379" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F379" s="0" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16641,13 +16730,13 @@
       <c r="B380" s="2"/>
       <c r="C380" s="3"/>
       <c r="D380" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E380" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F380" s="0" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16655,13 +16744,13 @@
       <c r="B381" s="2"/>
       <c r="C381" s="3"/>
       <c r="D381" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E381" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F381" s="0" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16669,13 +16758,13 @@
       <c r="B382" s="2"/>
       <c r="C382" s="3"/>
       <c r="D382" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E382" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F382" s="0" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16683,13 +16772,13 @@
       <c r="B383" s="2"/>
       <c r="C383" s="3"/>
       <c r="D383" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E383" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F383" s="0" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16697,13 +16786,13 @@
       <c r="B384" s="2"/>
       <c r="C384" s="3"/>
       <c r="D384" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E384" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F384" s="0" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16711,13 +16800,13 @@
       <c r="B385" s="2"/>
       <c r="C385" s="3"/>
       <c r="D385" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E385" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F385" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16725,13 +16814,13 @@
       <c r="B386" s="2"/>
       <c r="C386" s="3"/>
       <c r="D386" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E386" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F386" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16739,13 +16828,13 @@
       <c r="B387" s="2"/>
       <c r="C387" s="3"/>
       <c r="D387" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E387" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F387" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16753,13 +16842,13 @@
       <c r="B388" s="2"/>
       <c r="C388" s="3"/>
       <c r="D388" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E388" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F388" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16767,13 +16856,13 @@
       <c r="B389" s="2"/>
       <c r="C389" s="3"/>
       <c r="D389" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E389" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F389" s="0" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16781,13 +16870,13 @@
       <c r="B390" s="2"/>
       <c r="C390" s="3"/>
       <c r="D390" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E390" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F390" s="0" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16795,13 +16884,13 @@
       <c r="B391" s="2"/>
       <c r="C391" s="3"/>
       <c r="D391" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E391" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F391" s="0" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16809,13 +16898,13 @@
       <c r="B392" s="2"/>
       <c r="C392" s="3"/>
       <c r="D392" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E392" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F392" s="0" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16823,13 +16912,13 @@
       <c r="B393" s="2"/>
       <c r="C393" s="3"/>
       <c r="D393" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E393" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F393" s="0" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16837,13 +16926,13 @@
       <c r="B394" s="2"/>
       <c r="C394" s="3"/>
       <c r="D394" s="0" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="E394" s="0" t="n">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="F394" s="0" t="s">
-        <v>129</v>
+        <v>689</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16851,47 +16940,51 @@
       <c r="B395" s="2"/>
       <c r="C395" s="3"/>
       <c r="D395" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E395" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F395" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="2"/>
+      <c r="B396" s="2"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E395" s="0" t="n">
+      <c r="E396" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F395" s="0" t="s">
+      <c r="F396" s="0" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="2" t="s">
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B397" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="C396" s="3" t="s">
+      <c r="C397" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="D396" s="5" t="n">
+      <c r="D397" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E396" s="0" t="n">
+      <c r="E397" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F396" s="5" t="s">
+      <c r="F397" s="5" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="2"/>
-      <c r="B397" s="2"/>
-      <c r="C397" s="3"/>
-      <c r="D397" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E397" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="F397" s="0" t="s">
-        <v>695</v>
+      <c r="G397" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A397," as ",B397,",")</f>
+        <v>  m1.TP_MOR_SERIE_CONCLUIDA as E04,</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16899,13 +16992,13 @@
       <c r="B398" s="2"/>
       <c r="C398" s="3"/>
       <c r="D398" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E398" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F398" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16913,13 +17006,13 @@
       <c r="B399" s="2"/>
       <c r="C399" s="3"/>
       <c r="D399" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E399" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F399" s="0" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16927,13 +17020,13 @@
       <c r="B400" s="2"/>
       <c r="C400" s="3"/>
       <c r="D400" s="5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E400" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F400" s="0" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16941,13 +17034,13 @@
       <c r="B401" s="2"/>
       <c r="C401" s="3"/>
       <c r="D401" s="5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E401" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F401" s="0" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16955,13 +17048,13 @@
       <c r="B402" s="2"/>
       <c r="C402" s="3"/>
       <c r="D402" s="5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E402" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F402" s="0" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16969,13 +17062,13 @@
       <c r="B403" s="2"/>
       <c r="C403" s="3"/>
       <c r="D403" s="5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E403" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F403" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16983,73 +17076,77 @@
       <c r="B404" s="2"/>
       <c r="C404" s="3"/>
       <c r="D404" s="5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E404" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F404" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="3"/>
-      <c r="D405" s="4"/>
+      <c r="D405" s="5" t="n">
+        <v>9</v>
+      </c>
       <c r="E405" s="0" t="n">
-        <v>88</v>
-      </c>
-      <c r="F405" s="5" t="s">
-        <v>85</v>
+        <v>9</v>
+      </c>
+      <c r="F405" s="0" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="3"/>
-      <c r="D406" s="0" t="n">
-        <v>0</v>
-      </c>
+      <c r="D406" s="4"/>
       <c r="E406" s="0" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A407" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>705</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2"/>
+      <c r="B407" s="2"/>
+      <c r="C407" s="3"/>
       <c r="D407" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E407" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A408" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D408" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F407" s="0" t="s">
+      <c r="E408" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F408" s="0" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="2"/>
-      <c r="B408" s="2"/>
-      <c r="C408" s="3"/>
-      <c r="D408" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E408" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F408" s="0" t="s">
-        <v>707</v>
+      <c r="G408" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A408," as ",B408,",")</f>
+        <v>  m1.TP_MOR_OUTROS_CURSOS as E05,</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17057,13 +17154,13 @@
       <c r="B409" s="2"/>
       <c r="C409" s="3"/>
       <c r="D409" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E409" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F409" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17071,13 +17168,13 @@
       <c r="B410" s="2"/>
       <c r="C410" s="3"/>
       <c r="D410" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E410" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F410" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17085,13 +17182,13 @@
       <c r="B411" s="2"/>
       <c r="C411" s="3"/>
       <c r="D411" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E411" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F411" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17099,13 +17196,13 @@
       <c r="B412" s="2"/>
       <c r="C412" s="3"/>
       <c r="D412" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E412" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F412" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17113,47 +17210,51 @@
       <c r="B413" s="2"/>
       <c r="C413" s="3"/>
       <c r="D413" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E413" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F413" s="0" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2"/>
+      <c r="B414" s="2"/>
+      <c r="C414" s="3"/>
+      <c r="D414" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E413" s="0" t="n">
+      <c r="E414" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F413" s="0" t="s">
+      <c r="F414" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="2" t="s">
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B415" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C414" s="3" t="s">
+      <c r="C415" s="3" t="s">
         <v>714</v>
       </c>
-      <c r="D414" s="0" t="n">
+      <c r="D415" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E414" s="0" t="n">
+      <c r="E415" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F414" s="0" t="s">
+      <c r="F415" s="0" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2"/>
-      <c r="B415" s="2"/>
-      <c r="C415" s="3"/>
-      <c r="D415" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E415" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F415" s="0" t="s">
-        <v>716</v>
+      <c r="G415" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A415," as ",B415,",")</f>
+        <v>  m1.ST_MOR_SITUACAO_ATIVIDADE as E06,</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17161,13 +17262,13 @@
       <c r="B416" s="2"/>
       <c r="C416" s="3"/>
       <c r="D416" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E416" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F416" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17175,13 +17276,13 @@
       <c r="B417" s="2"/>
       <c r="C417" s="3"/>
       <c r="D417" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E417" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F417" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17189,13 +17290,13 @@
       <c r="B418" s="2"/>
       <c r="C418" s="3"/>
       <c r="D418" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E418" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F418" s="0" t="s">
-        <v>485</v>
+        <v>718</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17203,13 +17304,13 @@
       <c r="B419" s="2"/>
       <c r="C419" s="3"/>
       <c r="D419" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E419" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F419" s="0" t="s">
-        <v>719</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17217,13 +17318,13 @@
       <c r="B420" s="2"/>
       <c r="C420" s="3"/>
       <c r="D420" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E420" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F420" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17231,13 +17332,13 @@
       <c r="B421" s="2"/>
       <c r="C421" s="3"/>
       <c r="D421" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E421" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F421" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17245,13 +17346,13 @@
       <c r="B422" s="2"/>
       <c r="C422" s="3"/>
       <c r="D422" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E422" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F422" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17259,67 +17360,71 @@
       <c r="B423" s="2"/>
       <c r="C423" s="3"/>
       <c r="D423" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E423" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E423" s="0" t="n">
+        <v>8</v>
+      </c>
       <c r="F423" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="3"/>
-      <c r="D424" s="6"/>
-      <c r="E424" s="5" t="n">
-        <v>88</v>
-      </c>
-      <c r="F424" s="5" t="s">
-        <v>85</v>
+      <c r="D424" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E424" s="8"/>
+      <c r="F424" s="0" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="3"/>
-      <c r="D425" s="6"/>
+      <c r="D425" s="8"/>
       <c r="E425" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="2"/>
+      <c r="B426" s="2"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="8"/>
+      <c r="E426" s="5" t="n">
         <v>99</v>
       </c>
-      <c r="F425" s="5" t="s">
+      <c r="F426" s="5" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A426" s="2" t="s">
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B427" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C426" s="3" t="s">
+      <c r="C427" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="D426" s="0" t="n">
+      <c r="D427" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E426" s="6"/>
-      <c r="F426" s="0" t="s">
+      <c r="E427" s="8"/>
+      <c r="F427" s="0" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="2"/>
-      <c r="B427" s="2"/>
-      <c r="C427" s="3"/>
-      <c r="D427" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E427" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F427" s="0" t="s">
-        <v>728</v>
+      <c r="G427" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A427," as ",B427,",")</f>
+        <v>  m1.ST_MOR_ATV_REMUNERADA as E07,</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17327,13 +17432,13 @@
       <c r="B428" s="2"/>
       <c r="C428" s="3"/>
       <c r="D428" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E428" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F428" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17341,13 +17446,13 @@
       <c r="B429" s="2"/>
       <c r="C429" s="3"/>
       <c r="D429" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E429" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F429" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17355,13 +17460,13 @@
       <c r="B430" s="2"/>
       <c r="C430" s="3"/>
       <c r="D430" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E430" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F430" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17369,13 +17474,13 @@
       <c r="B431" s="2"/>
       <c r="C431" s="3"/>
       <c r="D431" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E431" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F431" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17383,13 +17488,13 @@
       <c r="B432" s="2"/>
       <c r="C432" s="3"/>
       <c r="D432" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E432" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F432" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17397,13 +17502,13 @@
       <c r="B433" s="2"/>
       <c r="C433" s="3"/>
       <c r="D433" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E433" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F433" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17411,13 +17516,13 @@
       <c r="B434" s="2"/>
       <c r="C434" s="3"/>
       <c r="D434" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E434" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F434" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17425,13 +17530,13 @@
       <c r="B435" s="2"/>
       <c r="C435" s="3"/>
       <c r="D435" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E435" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F435" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17439,13 +17544,13 @@
       <c r="B436" s="2"/>
       <c r="C436" s="3"/>
       <c r="D436" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E436" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F436" s="0" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17453,13 +17558,13 @@
       <c r="B437" s="2"/>
       <c r="C437" s="3"/>
       <c r="D437" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E437" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F437" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17467,13 +17572,13 @@
       <c r="B438" s="2"/>
       <c r="C438" s="3"/>
       <c r="D438" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E438" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F438" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17481,13 +17586,13 @@
       <c r="B439" s="2"/>
       <c r="C439" s="3"/>
       <c r="D439" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E439" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F439" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17495,13 +17600,13 @@
       <c r="B440" s="2"/>
       <c r="C440" s="3"/>
       <c r="D440" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E440" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F440" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17509,13 +17614,13 @@
       <c r="B441" s="2"/>
       <c r="C441" s="3"/>
       <c r="D441" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E441" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F441" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17523,13 +17628,13 @@
       <c r="B442" s="2"/>
       <c r="C442" s="3"/>
       <c r="D442" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E442" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F442" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17537,13 +17642,13 @@
       <c r="B443" s="2"/>
       <c r="C443" s="3"/>
       <c r="D443" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E443" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F443" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17551,13 +17656,13 @@
       <c r="B444" s="2"/>
       <c r="C444" s="3"/>
       <c r="D444" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E444" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F444" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17565,13 +17670,13 @@
       <c r="B445" s="2"/>
       <c r="C445" s="3"/>
       <c r="D445" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E445" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F445" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17579,13 +17684,13 @@
       <c r="B446" s="2"/>
       <c r="C446" s="3"/>
       <c r="D446" s="0" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E446" s="0" t="n">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="F446" s="0" t="s">
-        <v>85</v>
+        <v>746</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17593,45 +17698,49 @@
       <c r="B447" s="2"/>
       <c r="C447" s="3"/>
       <c r="D447" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E447" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F447" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="2"/>
+      <c r="B448" s="2"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E447" s="0" t="n">
+      <c r="E448" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F447" s="0" t="s">
+      <c r="F448" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="2" t="s">
+    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A449" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B449" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C448" s="3" t="s">
+      <c r="C449" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="D448" s="0" t="n">
+      <c r="D449" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E448" s="6"/>
-      <c r="F448" s="0" t="s">
+      <c r="E449" s="8"/>
+      <c r="F449" s="0" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="2"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="3"/>
-      <c r="D449" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E449" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F449" s="0" t="s">
-        <v>751</v>
+      <c r="G449" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A449," as ",B449,",")</f>
+        <v>  m1.TP_MOR_OCUPACAO as E08,</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17639,13 +17748,13 @@
       <c r="B450" s="2"/>
       <c r="C450" s="3"/>
       <c r="D450" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E450" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F450" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17653,13 +17762,13 @@
       <c r="B451" s="2"/>
       <c r="C451" s="3"/>
       <c r="D451" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E451" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F451" s="0" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17667,13 +17776,13 @@
       <c r="B452" s="2"/>
       <c r="C452" s="3"/>
       <c r="D452" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E452" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F452" s="0" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17681,13 +17790,13 @@
       <c r="B453" s="2"/>
       <c r="C453" s="3"/>
       <c r="D453" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E453" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F453" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17695,13 +17804,13 @@
       <c r="B454" s="2"/>
       <c r="C454" s="3"/>
       <c r="D454" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E454" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F454" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17709,13 +17818,13 @@
       <c r="B455" s="2"/>
       <c r="C455" s="3"/>
       <c r="D455" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E455" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F455" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17723,13 +17832,13 @@
       <c r="B456" s="2"/>
       <c r="C456" s="3"/>
       <c r="D456" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E456" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F456" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17737,13 +17846,13 @@
       <c r="B457" s="2"/>
       <c r="C457" s="3"/>
       <c r="D457" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E457" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F457" s="0" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17751,13 +17860,13 @@
       <c r="B458" s="2"/>
       <c r="C458" s="3"/>
       <c r="D458" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E458" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F458" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17765,13 +17874,13 @@
       <c r="B459" s="2"/>
       <c r="C459" s="3"/>
       <c r="D459" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E459" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F459" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17779,13 +17888,13 @@
       <c r="B460" s="2"/>
       <c r="C460" s="3"/>
       <c r="D460" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E460" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F460" s="0" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17793,13 +17902,13 @@
       <c r="B461" s="2"/>
       <c r="C461" s="3"/>
       <c r="D461" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E461" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F461" s="0" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17807,13 +17916,13 @@
       <c r="B462" s="2"/>
       <c r="C462" s="3"/>
       <c r="D462" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E462" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F462" s="0" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17821,13 +17930,13 @@
       <c r="B463" s="2"/>
       <c r="C463" s="3"/>
       <c r="D463" s="0" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="E463" s="0" t="n">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="F463" s="0" t="s">
-        <v>85</v>
+        <v>764</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17835,45 +17944,49 @@
       <c r="B464" s="2"/>
       <c r="C464" s="3"/>
       <c r="D464" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E464" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F464" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="2"/>
+      <c r="B465" s="2"/>
+      <c r="C465" s="3"/>
+      <c r="D465" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E464" s="0" t="n">
+      <c r="E465" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F464" s="0" t="s">
+      <c r="F465" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A465" s="2" t="s">
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A466" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B466" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="C465" s="3" t="s">
+      <c r="C466" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="D465" s="0" t="n">
+      <c r="D466" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E465" s="6"/>
-      <c r="F465" s="0" t="s">
+      <c r="E466" s="8"/>
+      <c r="F466" s="0" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="2"/>
-      <c r="B466" s="2"/>
-      <c r="C466" s="3"/>
-      <c r="D466" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E466" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F466" s="0" t="s">
-        <v>372</v>
+      <c r="G466" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A466," as ",B466,",")</f>
+        <v>  m1.LC_MOR_TRABALHA as E09,</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17881,13 +17994,13 @@
       <c r="B467" s="2"/>
       <c r="C467" s="3"/>
       <c r="D467" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E467" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F467" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17895,13 +18008,13 @@
       <c r="B468" s="2"/>
       <c r="C468" s="3"/>
       <c r="D468" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E468" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F468" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17909,13 +18022,13 @@
       <c r="B469" s="2"/>
       <c r="C469" s="3"/>
       <c r="D469" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E469" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F469" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17923,13 +18036,13 @@
       <c r="B470" s="2"/>
       <c r="C470" s="3"/>
       <c r="D470" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E470" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F470" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17937,13 +18050,13 @@
       <c r="B471" s="2"/>
       <c r="C471" s="3"/>
       <c r="D471" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E471" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F471" s="0" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17951,13 +18064,13 @@
       <c r="B472" s="2"/>
       <c r="C472" s="3"/>
       <c r="D472" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E472" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F472" s="0" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17965,13 +18078,13 @@
       <c r="B473" s="2"/>
       <c r="C473" s="3"/>
       <c r="D473" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E473" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F473" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17979,13 +18092,13 @@
       <c r="B474" s="2"/>
       <c r="C474" s="3"/>
       <c r="D474" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E474" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F474" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17993,13 +18106,13 @@
       <c r="B475" s="2"/>
       <c r="C475" s="3"/>
       <c r="D475" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E475" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F475" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18007,13 +18120,13 @@
       <c r="B476" s="2"/>
       <c r="C476" s="3"/>
       <c r="D476" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E476" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F476" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18021,13 +18134,13 @@
       <c r="B477" s="2"/>
       <c r="C477" s="3"/>
       <c r="D477" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E477" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F477" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18035,13 +18148,13 @@
       <c r="B478" s="2"/>
       <c r="C478" s="3"/>
       <c r="D478" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E478" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F478" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18049,13 +18162,13 @@
       <c r="B479" s="2"/>
       <c r="C479" s="3"/>
       <c r="D479" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E479" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F479" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18063,13 +18176,13 @@
       <c r="B480" s="2"/>
       <c r="C480" s="3"/>
       <c r="D480" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E480" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F480" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18077,13 +18190,13 @@
       <c r="B481" s="2"/>
       <c r="C481" s="3"/>
       <c r="D481" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E481" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F481" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18091,13 +18204,13 @@
       <c r="B482" s="2"/>
       <c r="C482" s="3"/>
       <c r="D482" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E482" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F482" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18105,13 +18218,13 @@
       <c r="B483" s="2"/>
       <c r="C483" s="3"/>
       <c r="D483" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E483" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F483" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18119,13 +18232,13 @@
       <c r="B484" s="2"/>
       <c r="C484" s="3"/>
       <c r="D484" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E484" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F484" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18133,13 +18246,13 @@
       <c r="B485" s="2"/>
       <c r="C485" s="3"/>
       <c r="D485" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E485" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F485" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18147,13 +18260,13 @@
       <c r="B486" s="2"/>
       <c r="C486" s="3"/>
       <c r="D486" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E486" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F486" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18161,13 +18274,13 @@
       <c r="B487" s="2"/>
       <c r="C487" s="3"/>
       <c r="D487" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E487" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F487" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18175,13 +18288,13 @@
       <c r="B488" s="2"/>
       <c r="C488" s="3"/>
       <c r="D488" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E488" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F488" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18189,13 +18302,13 @@
       <c r="B489" s="2"/>
       <c r="C489" s="3"/>
       <c r="D489" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E489" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F489" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18203,13 +18316,13 @@
       <c r="B490" s="2"/>
       <c r="C490" s="3"/>
       <c r="D490" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E490" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F490" s="0" t="s">
-        <v>613</v>
+        <v>394</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18217,13 +18330,13 @@
       <c r="B491" s="2"/>
       <c r="C491" s="3"/>
       <c r="D491" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E491" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F491" s="0" t="s">
-        <v>396</v>
+        <v>613</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18231,13 +18344,13 @@
       <c r="B492" s="2"/>
       <c r="C492" s="3"/>
       <c r="D492" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E492" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F492" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18245,13 +18358,13 @@
       <c r="B493" s="2"/>
       <c r="C493" s="3"/>
       <c r="D493" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E493" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F493" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18259,13 +18372,13 @@
       <c r="B494" s="2"/>
       <c r="C494" s="3"/>
       <c r="D494" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E494" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F494" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18273,13 +18386,13 @@
       <c r="B495" s="2"/>
       <c r="C495" s="3"/>
       <c r="D495" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E495" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F495" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18287,13 +18400,13 @@
       <c r="B496" s="2"/>
       <c r="C496" s="3"/>
       <c r="D496" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E496" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F496" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18301,13 +18414,13 @@
       <c r="B497" s="2"/>
       <c r="C497" s="3"/>
       <c r="D497" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E497" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F497" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18315,13 +18428,13 @@
       <c r="B498" s="2"/>
       <c r="C498" s="3"/>
       <c r="D498" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E498" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F498" s="0" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18329,13 +18442,13 @@
       <c r="B499" s="2"/>
       <c r="C499" s="3"/>
       <c r="D499" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E499" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F499" s="0" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18343,13 +18456,13 @@
       <c r="B500" s="2"/>
       <c r="C500" s="3"/>
       <c r="D500" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E500" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F500" s="0" t="s">
-        <v>769</v>
+        <v>10</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18357,13 +18470,13 @@
       <c r="B501" s="2"/>
       <c r="C501" s="3"/>
       <c r="D501" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E501" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F501" s="0" t="s">
-        <v>614</v>
+        <v>769</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18371,13 +18484,13 @@
       <c r="B502" s="2"/>
       <c r="C502" s="3"/>
       <c r="D502" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E502" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F502" s="0" t="s">
-        <v>416</v>
+        <v>614</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18385,13 +18498,13 @@
       <c r="B503" s="2"/>
       <c r="C503" s="3"/>
       <c r="D503" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E503" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F503" s="0" t="s">
-        <v>14</v>
+        <v>416</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18399,13 +18512,13 @@
       <c r="B504" s="2"/>
       <c r="C504" s="3"/>
       <c r="D504" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E504" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F504" s="0" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18413,13 +18526,13 @@
       <c r="B505" s="2"/>
       <c r="C505" s="3"/>
       <c r="D505" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E505" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F505" s="0" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18427,13 +18540,13 @@
       <c r="B506" s="2"/>
       <c r="C506" s="3"/>
       <c r="D506" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E506" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F506" s="0" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18441,13 +18554,13 @@
       <c r="B507" s="2"/>
       <c r="C507" s="3"/>
       <c r="D507" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E507" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F507" s="0" t="s">
-        <v>18</v>
+        <v>407</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18455,13 +18568,13 @@
       <c r="B508" s="2"/>
       <c r="C508" s="3"/>
       <c r="D508" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E508" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F508" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18469,13 +18582,13 @@
       <c r="B509" s="2"/>
       <c r="C509" s="3"/>
       <c r="D509" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E509" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F509" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18483,13 +18596,13 @@
       <c r="B510" s="2"/>
       <c r="C510" s="3"/>
       <c r="D510" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E510" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F510" s="0" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18497,13 +18610,13 @@
       <c r="B511" s="2"/>
       <c r="C511" s="3"/>
       <c r="D511" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E511" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F511" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18511,13 +18624,13 @@
       <c r="B512" s="2"/>
       <c r="C512" s="3"/>
       <c r="D512" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E512" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F512" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18525,13 +18638,13 @@
       <c r="B513" s="2"/>
       <c r="C513" s="3"/>
       <c r="D513" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E513" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F513" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18539,13 +18652,13 @@
       <c r="B514" s="2"/>
       <c r="C514" s="3"/>
       <c r="D514" s="0" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E514" s="0" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F514" s="0" t="s">
-        <v>129</v>
+        <v>411</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18553,45 +18666,49 @@
       <c r="B515" s="2"/>
       <c r="C515" s="3"/>
       <c r="D515" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E515" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F515" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="2"/>
+      <c r="B516" s="2"/>
+      <c r="C516" s="3"/>
+      <c r="D516" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E515" s="0" t="n">
+      <c r="E516" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F515" s="0" t="s">
+      <c r="F516" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A516" s="2" t="s">
+    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A517" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B517" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C516" s="3" t="s">
+      <c r="C517" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="D516" s="0" t="n">
+      <c r="D517" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E516" s="6"/>
-      <c r="F516" s="0" t="s">
+      <c r="E517" s="8"/>
+      <c r="F517" s="0" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="2"/>
-      <c r="B517" s="2"/>
-      <c r="C517" s="3"/>
-      <c r="D517" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E517" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F517" s="0" t="s">
-        <v>773</v>
+      <c r="G517" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A517," as ",B517,",")</f>
+        <v>  m1.TP_MOR_TEMPO_GASTO as E10,</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18599,13 +18716,13 @@
       <c r="B518" s="2"/>
       <c r="C518" s="3"/>
       <c r="D518" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E518" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F518" s="0" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18613,13 +18730,13 @@
       <c r="B519" s="2"/>
       <c r="C519" s="3"/>
       <c r="D519" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E519" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F519" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18627,13 +18744,13 @@
       <c r="B520" s="2"/>
       <c r="C520" s="3"/>
       <c r="D520" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E520" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F520" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18641,13 +18758,13 @@
       <c r="B521" s="2"/>
       <c r="C521" s="3"/>
       <c r="D521" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E521" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F521" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18655,13 +18772,13 @@
       <c r="B522" s="2"/>
       <c r="C522" s="3"/>
       <c r="D522" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E522" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F522" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18669,13 +18786,13 @@
       <c r="B523" s="2"/>
       <c r="C523" s="3"/>
       <c r="D523" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E523" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F523" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18683,13 +18800,13 @@
       <c r="B524" s="2"/>
       <c r="C524" s="3"/>
       <c r="D524" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E524" s="0" t="n">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="F524" s="0" t="s">
-        <v>129</v>
+        <v>779</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18697,45 +18814,49 @@
       <c r="B525" s="2"/>
       <c r="C525" s="3"/>
       <c r="D525" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E525" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F525" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="2"/>
+      <c r="B526" s="2"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E525" s="0" t="n">
+      <c r="E526" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F525" s="0" t="s">
+      <c r="F526" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A526" s="2" t="s">
+    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A527" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B527" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C526" s="3" t="s">
+      <c r="C527" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="D526" s="0" t="n">
+      <c r="D527" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E526" s="6"/>
-      <c r="F526" s="0" t="s">
+      <c r="E527" s="8"/>
+      <c r="F527" s="0" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="2"/>
-      <c r="B527" s="2"/>
-      <c r="C527" s="3"/>
-      <c r="D527" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E527" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F527" s="0" t="s">
-        <v>783</v>
+      <c r="G527" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A527," as ",B527,",")</f>
+        <v>  m1.TP_MOR_MODO_TRANSPORTE as E11,</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18743,13 +18864,13 @@
       <c r="B528" s="2"/>
       <c r="C528" s="3"/>
       <c r="D528" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E528" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F528" s="0" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18757,13 +18878,13 @@
       <c r="B529" s="2"/>
       <c r="C529" s="3"/>
       <c r="D529" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E529" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F529" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18771,13 +18892,13 @@
       <c r="B530" s="2"/>
       <c r="C530" s="3"/>
       <c r="D530" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E530" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F530" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18785,13 +18906,13 @@
       <c r="B531" s="2"/>
       <c r="C531" s="3"/>
       <c r="D531" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E531" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F531" s="0" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18799,13 +18920,13 @@
       <c r="B532" s="2"/>
       <c r="C532" s="3"/>
       <c r="D532" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E532" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F532" s="0" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18813,13 +18934,13 @@
       <c r="B533" s="2"/>
       <c r="C533" s="3"/>
       <c r="D533" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E533" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F533" s="0" t="s">
-        <v>256</v>
+        <v>788</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18827,13 +18948,13 @@
       <c r="B534" s="2"/>
       <c r="C534" s="3"/>
       <c r="D534" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E534" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F534" s="0" t="s">
-        <v>789</v>
+        <v>256</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18841,13 +18962,13 @@
       <c r="B535" s="2"/>
       <c r="C535" s="3"/>
       <c r="D535" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E535" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F535" s="0" t="s">
-        <v>262</v>
+        <v>789</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18855,13 +18976,13 @@
       <c r="B536" s="2"/>
       <c r="C536" s="3"/>
       <c r="D536" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E536" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F536" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18869,13 +18990,13 @@
       <c r="B537" s="2"/>
       <c r="C537" s="3"/>
       <c r="D537" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E537" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F537" s="0" t="s">
-        <v>790</v>
+        <v>265</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18883,13 +19004,13 @@
       <c r="B538" s="2"/>
       <c r="C538" s="3"/>
       <c r="D538" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E538" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F538" s="0" t="s">
-        <v>63</v>
+        <v>790</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18897,45 +19018,49 @@
       <c r="B539" s="2"/>
       <c r="C539" s="3"/>
       <c r="D539" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E539" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F539" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="2"/>
+      <c r="B540" s="2"/>
+      <c r="C540" s="3"/>
+      <c r="D540" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E539" s="0" t="n">
+      <c r="E540" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F539" s="0" t="s">
+      <c r="F540" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A540" s="2" t="s">
+    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A541" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B541" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="C540" s="3" t="s">
+      <c r="C541" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="D540" s="0" t="n">
+      <c r="D541" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E540" s="6"/>
-      <c r="F540" s="0" t="s">
+      <c r="E541" s="8"/>
+      <c r="F541" s="0" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="2"/>
-      <c r="B541" s="2"/>
-      <c r="C541" s="3"/>
-      <c r="D541" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E541" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F541" s="0" t="s">
-        <v>794</v>
+      <c r="G541" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A541," as ",B541,",")</f>
+        <v>  m1.TP_MOR_PREVIDENCIA as E14,</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18943,13 +19068,13 @@
       <c r="B542" s="2"/>
       <c r="C542" s="3"/>
       <c r="D542" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E542" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F542" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18957,13 +19082,13 @@
       <c r="B543" s="2"/>
       <c r="C543" s="3"/>
       <c r="D543" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E543" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F543" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18971,13 +19096,13 @@
       <c r="B544" s="2"/>
       <c r="C544" s="3"/>
       <c r="D544" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E544" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F544" s="0" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18985,13 +19110,13 @@
       <c r="B545" s="2"/>
       <c r="C545" s="3"/>
       <c r="D545" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E545" s="0" t="n">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="F545" s="0" t="s">
-        <v>85</v>
+        <v>797</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18999,47 +19124,51 @@
       <c r="B546" s="2"/>
       <c r="C546" s="3"/>
       <c r="D546" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E546" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F546" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="2"/>
+      <c r="B547" s="2"/>
+      <c r="C547" s="3"/>
+      <c r="D547" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E546" s="0" t="n">
+      <c r="E547" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F546" s="0" t="s">
+      <c r="F547" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A547" s="2" t="s">
+    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A548" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B548" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C547" s="3" t="s">
+      <c r="C548" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="D547" s="0" t="n">
+      <c r="D548" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E547" s="0" t="n">
+      <c r="E548" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F547" s="0" t="s">
+      <c r="F548" s="0" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="2"/>
-      <c r="B548" s="2"/>
-      <c r="C548" s="3"/>
-      <c r="D548" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E548" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F548" s="0" t="s">
-        <v>372</v>
+      <c r="G548" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A548," as ",B548,",")</f>
+        <v>  m1.LC_MOR_SER_BANCARIOS as E15,</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19047,13 +19176,13 @@
       <c r="B549" s="2"/>
       <c r="C549" s="3"/>
       <c r="D549" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E549" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F549" s="0" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19061,13 +19190,13 @@
       <c r="B550" s="2"/>
       <c r="C550" s="3"/>
       <c r="D550" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E550" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F550" s="0" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19075,13 +19204,13 @@
       <c r="B551" s="2"/>
       <c r="C551" s="3"/>
       <c r="D551" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E551" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F551" s="0" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19089,13 +19218,13 @@
       <c r="B552" s="2"/>
       <c r="C552" s="3"/>
       <c r="D552" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E552" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F552" s="0" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19103,13 +19232,13 @@
       <c r="B553" s="2"/>
       <c r="C553" s="3"/>
       <c r="D553" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E553" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F553" s="0" t="s">
-        <v>18</v>
+        <v>376</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19117,13 +19246,13 @@
       <c r="B554" s="2"/>
       <c r="C554" s="3"/>
       <c r="D554" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E554" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F554" s="0" t="s">
-        <v>377</v>
+        <v>18</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19131,13 +19260,13 @@
       <c r="B555" s="2"/>
       <c r="C555" s="3"/>
       <c r="D555" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E555" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F555" s="0" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19145,13 +19274,13 @@
       <c r="B556" s="2"/>
       <c r="C556" s="3"/>
       <c r="D556" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E556" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F556" s="0" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19159,13 +19288,13 @@
       <c r="B557" s="2"/>
       <c r="C557" s="3"/>
       <c r="D557" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E557" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F557" s="0" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19173,13 +19302,13 @@
       <c r="B558" s="2"/>
       <c r="C558" s="3"/>
       <c r="D558" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E558" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F558" s="0" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19187,13 +19316,13 @@
       <c r="B559" s="2"/>
       <c r="C559" s="3"/>
       <c r="D559" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E559" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F559" s="0" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19201,13 +19330,13 @@
       <c r="B560" s="2"/>
       <c r="C560" s="3"/>
       <c r="D560" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E560" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F560" s="0" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19215,13 +19344,13 @@
       <c r="B561" s="2"/>
       <c r="C561" s="3"/>
       <c r="D561" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E561" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F561" s="0" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19229,13 +19358,13 @@
       <c r="B562" s="2"/>
       <c r="C562" s="3"/>
       <c r="D562" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E562" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F562" s="0" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19243,13 +19372,13 @@
       <c r="B563" s="2"/>
       <c r="C563" s="3"/>
       <c r="D563" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E563" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F563" s="0" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19257,13 +19386,13 @@
       <c r="B564" s="2"/>
       <c r="C564" s="3"/>
       <c r="D564" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E564" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F564" s="0" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19271,13 +19400,13 @@
       <c r="B565" s="2"/>
       <c r="C565" s="3"/>
       <c r="D565" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E565" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F565" s="0" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19285,13 +19414,13 @@
       <c r="B566" s="2"/>
       <c r="C566" s="3"/>
       <c r="D566" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E566" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F566" s="0" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19299,13 +19428,13 @@
       <c r="B567" s="2"/>
       <c r="C567" s="3"/>
       <c r="D567" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E567" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F567" s="0" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19313,13 +19442,13 @@
       <c r="B568" s="2"/>
       <c r="C568" s="3"/>
       <c r="D568" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E568" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F568" s="0" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19327,13 +19456,13 @@
       <c r="B569" s="2"/>
       <c r="C569" s="3"/>
       <c r="D569" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E569" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F569" s="0" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19341,13 +19470,13 @@
       <c r="B570" s="2"/>
       <c r="C570" s="3"/>
       <c r="D570" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E570" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F570" s="0" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19355,13 +19484,13 @@
       <c r="B571" s="2"/>
       <c r="C571" s="3"/>
       <c r="D571" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E571" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F571" s="0" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19369,13 +19498,13 @@
       <c r="B572" s="2"/>
       <c r="C572" s="3"/>
       <c r="D572" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E572" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F572" s="0" t="s">
-        <v>613</v>
+        <v>394</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19383,13 +19512,13 @@
       <c r="B573" s="2"/>
       <c r="C573" s="3"/>
       <c r="D573" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E573" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F573" s="0" t="s">
-        <v>396</v>
+        <v>613</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19397,13 +19526,13 @@
       <c r="B574" s="2"/>
       <c r="C574" s="3"/>
       <c r="D574" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E574" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F574" s="0" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19411,13 +19540,13 @@
       <c r="B575" s="2"/>
       <c r="C575" s="3"/>
       <c r="D575" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E575" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F575" s="0" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19425,13 +19554,13 @@
       <c r="B576" s="2"/>
       <c r="C576" s="3"/>
       <c r="D576" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E576" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F576" s="0" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19439,13 +19568,13 @@
       <c r="B577" s="2"/>
       <c r="C577" s="3"/>
       <c r="D577" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E577" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F577" s="0" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19453,13 +19582,13 @@
       <c r="B578" s="2"/>
       <c r="C578" s="3"/>
       <c r="D578" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E578" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F578" s="0" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19467,13 +19596,13 @@
       <c r="B579" s="2"/>
       <c r="C579" s="3"/>
       <c r="D579" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E579" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F579" s="0" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19481,13 +19610,13 @@
       <c r="B580" s="2"/>
       <c r="C580" s="3"/>
       <c r="D580" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E580" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F580" s="0" t="s">
-        <v>9</v>
+        <v>402</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19495,13 +19624,13 @@
       <c r="B581" s="2"/>
       <c r="C581" s="3"/>
       <c r="D581" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E581" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F581" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19509,13 +19638,13 @@
       <c r="B582" s="2"/>
       <c r="C582" s="3"/>
       <c r="D582" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E582" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F582" s="0" t="s">
-        <v>403</v>
+        <v>10</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19523,13 +19652,13 @@
       <c r="B583" s="2"/>
       <c r="C583" s="3"/>
       <c r="D583" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E583" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F583" s="0" t="s">
-        <v>614</v>
+        <v>403</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19537,13 +19666,13 @@
       <c r="B584" s="2"/>
       <c r="C584" s="3"/>
       <c r="D584" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E584" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F584" s="0" t="s">
-        <v>416</v>
+        <v>614</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19551,13 +19680,13 @@
       <c r="B585" s="2"/>
       <c r="C585" s="3"/>
       <c r="D585" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E585" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F585" s="0" t="s">
-        <v>14</v>
+        <v>416</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19565,13 +19694,13 @@
       <c r="B586" s="2"/>
       <c r="C586" s="3"/>
       <c r="D586" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E586" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F586" s="0" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19579,13 +19708,13 @@
       <c r="B587" s="2"/>
       <c r="C587" s="3"/>
       <c r="D587" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E587" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F587" s="0" t="s">
-        <v>16</v>
+        <v>406</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19593,13 +19722,13 @@
       <c r="B588" s="2"/>
       <c r="C588" s="3"/>
       <c r="D588" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E588" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F588" s="0" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19607,13 +19736,13 @@
       <c r="B589" s="2"/>
       <c r="C589" s="3"/>
       <c r="D589" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E589" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F589" s="0" t="s">
-        <v>18</v>
+        <v>407</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19621,13 +19750,13 @@
       <c r="B590" s="2"/>
       <c r="C590" s="3"/>
       <c r="D590" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E590" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F590" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19635,13 +19764,13 @@
       <c r="B591" s="2"/>
       <c r="C591" s="3"/>
       <c r="D591" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E591" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F591" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19649,13 +19778,13 @@
       <c r="B592" s="2"/>
       <c r="C592" s="3"/>
       <c r="D592" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E592" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F592" s="0" t="s">
-        <v>408</v>
+        <v>20</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19663,13 +19792,13 @@
       <c r="B593" s="2"/>
       <c r="C593" s="3"/>
       <c r="D593" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E593" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F593" s="0" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19677,13 +19806,13 @@
       <c r="B594" s="2"/>
       <c r="C594" s="3"/>
       <c r="D594" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E594" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F594" s="0" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19691,13 +19820,13 @@
       <c r="B595" s="2"/>
       <c r="C595" s="3"/>
       <c r="D595" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E595" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F595" s="0" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19705,13 +19834,13 @@
       <c r="B596" s="2"/>
       <c r="C596" s="3"/>
       <c r="D596" s="0" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E596" s="0" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="F596" s="0" t="s">
-        <v>129</v>
+        <v>411</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19719,45 +19848,49 @@
       <c r="B597" s="2"/>
       <c r="C597" s="3"/>
       <c r="D597" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="E597" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="F597" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="2"/>
+      <c r="B598" s="2"/>
+      <c r="C598" s="3"/>
+      <c r="D598" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="E597" s="0" t="n">
+      <c r="E598" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F597" s="0" t="s">
+      <c r="F598" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A598" s="2" t="s">
+    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A599" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B599" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C598" s="3" t="s">
+      <c r="C599" s="3" t="s">
         <v>804</v>
       </c>
-      <c r="D598" s="6"/>
-      <c r="E598" s="0" t="n">
+      <c r="D599" s="8"/>
+      <c r="E599" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F598" s="0" t="s">
+      <c r="F599" s="0" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="2"/>
-      <c r="B599" s="2"/>
-      <c r="C599" s="3"/>
-      <c r="D599" s="0" t="n">
-        <v>77777</v>
-      </c>
-      <c r="E599" s="0" t="n">
-        <v>77777</v>
-      </c>
-      <c r="F599" s="0" t="s">
-        <v>84</v>
+      <c r="G599" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A599," as ",B599,",")</f>
+        <v>  m1.VL_MOR_RENDIMENTOS_BRUTOS as E12,</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19765,13 +19898,13 @@
       <c r="B600" s="2"/>
       <c r="C600" s="3"/>
       <c r="D600" s="0" t="n">
-        <v>88888</v>
+        <v>77777</v>
       </c>
       <c r="E600" s="0" t="n">
-        <v>88888</v>
+        <v>77777</v>
       </c>
       <c r="F600" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19779,45 +19912,49 @@
       <c r="B601" s="2"/>
       <c r="C601" s="3"/>
       <c r="D601" s="0" t="n">
+        <v>88888</v>
+      </c>
+      <c r="E601" s="0" t="n">
+        <v>88888</v>
+      </c>
+      <c r="F601" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="2"/>
+      <c r="B602" s="2"/>
+      <c r="C602" s="3"/>
+      <c r="D602" s="0" t="n">
         <v>99999</v>
       </c>
-      <c r="E601" s="0" t="n">
+      <c r="E602" s="0" t="n">
         <v>99999</v>
       </c>
-      <c r="F601" s="0" t="s">
+      <c r="F602" s="0" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A602" s="2" t="s">
+    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A603" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B602" s="2" t="s">
+      <c r="B603" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C602" s="3" t="s">
+      <c r="C603" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="D602" s="6"/>
-      <c r="E602" s="0" t="n">
+      <c r="D603" s="8"/>
+      <c r="E603" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F602" s="0" t="s">
+      <c r="F603" s="0" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="2"/>
-      <c r="B603" s="2"/>
-      <c r="C603" s="3"/>
-      <c r="D603" s="0" t="n">
-        <v>77777</v>
-      </c>
-      <c r="E603" s="0" t="n">
-        <v>77777</v>
-      </c>
-      <c r="F603" s="0" t="s">
-        <v>84</v>
+      <c r="G603" s="0" t="str">
+        <f aca="false">CONCATENATE("  m1.",A603," as ",B603,",")</f>
+        <v>  m1.VL_MOR_OUTROS_RENDIMENTOS as E13,</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19825,13 +19962,13 @@
       <c r="B604" s="2"/>
       <c r="C604" s="3"/>
       <c r="D604" s="0" t="n">
-        <v>88888</v>
+        <v>77777</v>
       </c>
       <c r="E604" s="0" t="n">
-        <v>88888</v>
+        <v>77777</v>
       </c>
       <c r="F604" s="0" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19839,302 +19976,316 @@
       <c r="B605" s="2"/>
       <c r="C605" s="3"/>
       <c r="D605" s="0" t="n">
+        <v>88888</v>
+      </c>
+      <c r="E605" s="0" t="n">
+        <v>88888</v>
+      </c>
+      <c r="F605" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="2"/>
+      <c r="B606" s="2"/>
+      <c r="C606" s="3"/>
+      <c r="D606" s="0" t="n">
         <v>99999</v>
       </c>
-      <c r="E605" s="0" t="n">
+      <c r="E606" s="0" t="n">
         <v>99999</v>
       </c>
-      <c r="F605" s="0" t="s">
+      <c r="F606" s="0" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E606" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E607" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E608" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E609" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E610" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E611" s="0" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E612" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E613" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E614" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E615" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E616" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E617" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E618" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E619" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E620" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E621" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E622" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E623" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E624" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E625" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E626" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E627" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E628" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E629" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E630" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E631" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E632" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E633" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E634" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E635" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E636" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E637" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E638" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E639" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E640" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E641" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E642" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E643" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E644" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E645" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E646" s="0" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E647" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E648" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E649" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E650" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E651" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E652" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E653" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E654" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E655" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E656" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E657" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E658" s="0" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E659" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E660" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E661" s="0" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E662" s="0" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E663" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E664" s="0" t="n">
         <v>99</v>
       </c>
     </row>
@@ -20209,55 +20360,55 @@
     <mergeCell ref="A308:A316"/>
     <mergeCell ref="B308:B316"/>
     <mergeCell ref="C308:C316"/>
-    <mergeCell ref="A317:A321"/>
-    <mergeCell ref="B317:B321"/>
-    <mergeCell ref="C317:C321"/>
-    <mergeCell ref="A322:A373"/>
-    <mergeCell ref="B322:B373"/>
-    <mergeCell ref="C322:C373"/>
-    <mergeCell ref="A374:A395"/>
-    <mergeCell ref="B374:B395"/>
-    <mergeCell ref="C374:C395"/>
-    <mergeCell ref="A396:A406"/>
-    <mergeCell ref="B396:B406"/>
-    <mergeCell ref="C396:C406"/>
-    <mergeCell ref="A407:A413"/>
-    <mergeCell ref="B407:B413"/>
-    <mergeCell ref="C407:C413"/>
-    <mergeCell ref="A414:A425"/>
-    <mergeCell ref="B414:B425"/>
-    <mergeCell ref="C414:C425"/>
-    <mergeCell ref="A426:A447"/>
-    <mergeCell ref="B426:B447"/>
-    <mergeCell ref="C426:C447"/>
-    <mergeCell ref="A448:A464"/>
-    <mergeCell ref="B448:B464"/>
-    <mergeCell ref="C448:C464"/>
-    <mergeCell ref="A465:A515"/>
-    <mergeCell ref="B465:B515"/>
-    <mergeCell ref="C465:C515"/>
-    <mergeCell ref="A516:A525"/>
-    <mergeCell ref="B516:B525"/>
-    <mergeCell ref="C516:C525"/>
-    <mergeCell ref="A526:A539"/>
-    <mergeCell ref="B526:B539"/>
-    <mergeCell ref="C526:C539"/>
-    <mergeCell ref="A540:A546"/>
-    <mergeCell ref="B540:B546"/>
-    <mergeCell ref="C540:C546"/>
-    <mergeCell ref="A547:A597"/>
-    <mergeCell ref="B547:B597"/>
-    <mergeCell ref="C547:C597"/>
-    <mergeCell ref="A598:A601"/>
-    <mergeCell ref="B598:B601"/>
-    <mergeCell ref="C598:C601"/>
-    <mergeCell ref="A602:A605"/>
-    <mergeCell ref="B602:B605"/>
-    <mergeCell ref="C602:C605"/>
+    <mergeCell ref="A317:A322"/>
+    <mergeCell ref="B317:B322"/>
+    <mergeCell ref="C317:C322"/>
+    <mergeCell ref="A323:A374"/>
+    <mergeCell ref="B323:B374"/>
+    <mergeCell ref="C323:C374"/>
+    <mergeCell ref="A375:A396"/>
+    <mergeCell ref="B375:B396"/>
+    <mergeCell ref="C375:C396"/>
+    <mergeCell ref="A397:A407"/>
+    <mergeCell ref="B397:B407"/>
+    <mergeCell ref="C397:C407"/>
+    <mergeCell ref="A408:A414"/>
+    <mergeCell ref="B408:B414"/>
+    <mergeCell ref="C408:C414"/>
+    <mergeCell ref="A415:A426"/>
+    <mergeCell ref="B415:B426"/>
+    <mergeCell ref="C415:C426"/>
+    <mergeCell ref="A427:A448"/>
+    <mergeCell ref="B427:B448"/>
+    <mergeCell ref="C427:C448"/>
+    <mergeCell ref="A449:A465"/>
+    <mergeCell ref="B449:B465"/>
+    <mergeCell ref="C449:C465"/>
+    <mergeCell ref="A466:A516"/>
+    <mergeCell ref="B466:B516"/>
+    <mergeCell ref="C466:C516"/>
+    <mergeCell ref="A517:A526"/>
+    <mergeCell ref="B517:B526"/>
+    <mergeCell ref="C517:C526"/>
+    <mergeCell ref="A527:A540"/>
+    <mergeCell ref="B527:B540"/>
+    <mergeCell ref="C527:C540"/>
+    <mergeCell ref="A541:A547"/>
+    <mergeCell ref="B541:B547"/>
+    <mergeCell ref="C541:C547"/>
+    <mergeCell ref="A548:A598"/>
+    <mergeCell ref="B548:B598"/>
+    <mergeCell ref="C548:C598"/>
+    <mergeCell ref="A599:A602"/>
+    <mergeCell ref="B599:B602"/>
+    <mergeCell ref="C599:C602"/>
+    <mergeCell ref="A603:A606"/>
+    <mergeCell ref="B603:B606"/>
+    <mergeCell ref="C603:C606"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
